--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>402.0</t>
+    <t>214.0</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
+      <c r="B6">
+        <v>103</v>
       </c>
       <c r="C6">
         <v>110</v>
@@ -3027,8 +3027,8 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25">
-        <v>211</v>
+      <c r="B25" t="s">
+        <v>73</v>
       </c>
       <c r="C25">
         <v>0</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>214.0</t>
+    <t>216.0</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>110</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>216.0</t>
+    <t>13234.0</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3082,7 @@
         <v>104</v>
       </c>
       <c r="T25">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="U25">
         <v>111</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>13234.0</t>
+    <t>4813.0</t>
   </si>
 </sst>
 </file>
@@ -3027,8 +3027,8 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>73</v>
+      <c r="B25">
+        <v>442</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>101</v>
       </c>
       <c r="P25">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>110</v>
@@ -3081,8 +3081,8 @@
       <c r="S25">
         <v>104</v>
       </c>
-      <c r="T25">
-        <v>444</v>
+      <c r="T25" t="s">
+        <v>73</v>
       </c>
       <c r="U25">
         <v>111</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>4813.0</t>
+    <t>800.0</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3028,7 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>442</v>
+        <v>211</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>101</v>
       </c>
       <c r="P25">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="Q25">
         <v>110</v>
@@ -3081,8 +3081,8 @@
       <c r="S25">
         <v>104</v>
       </c>
-      <c r="T25" t="s">
-        <v>73</v>
+      <c r="T25">
+        <v>411</v>
       </c>
       <c r="U25">
         <v>111</v>
@@ -3734,11 +3734,11 @@
       <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B32">
-        <v>200</v>
+      <c r="B32" t="s">
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D32">
         <v>1</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>800.0</t>
+    <t>400.0</t>
   </si>
 </sst>
 </file>
@@ -3734,11 +3734,11 @@
       <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>800</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
-      </c>
-      <c r="C32">
-        <v>400</v>
       </c>
       <c r="D32">
         <v>1</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>400.0</t>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -3735,13 +3735,13 @@
         <v>63</v>
       </c>
       <c r="B32">
-        <v>800</v>
-      </c>
-      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="D32" t="s">
         <v>73</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>111.0</t>
   </si>
 </sst>
 </file>
@@ -2629,8 +2629,8 @@
       <c r="C21">
         <v>11</v>
       </c>
-      <c r="D21">
-        <v>311</v>
+      <c r="D21" t="s">
+        <v>73</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -3740,8 +3740,8 @@
       <c r="C32">
         <v>400</v>
       </c>
-      <c r="D32" t="s">
-        <v>73</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>111.0</t>
+    <t>110.0</t>
   </si>
 </sst>
 </file>
@@ -2629,8 +2629,8 @@
       <c r="C21">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
-        <v>73</v>
+      <c r="D21">
+        <v>111</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -4245,8 +4245,8 @@
       <c r="C37">
         <v>110</v>
       </c>
-      <c r="D37">
-        <v>110</v>
+      <c r="D37" t="s">
+        <v>73</v>
       </c>
       <c r="E37">
         <v>10</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>110.0</t>
+    <t>101.0</t>
   </si>
 </sst>
 </file>
@@ -3372,8 +3372,8 @@
       <c r="O28">
         <v>11</v>
       </c>
-      <c r="P28">
-        <v>101</v>
+      <c r="P28" t="s">
+        <v>73</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -4245,8 +4245,8 @@
       <c r="C37">
         <v>110</v>
       </c>
-      <c r="D37" t="s">
-        <v>73</v>
+      <c r="D37">
+        <v>110</v>
       </c>
       <c r="E37">
         <v>10</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>101.0</t>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -3372,8 +3372,8 @@
       <c r="O28">
         <v>11</v>
       </c>
-      <c r="P28" t="s">
-        <v>73</v>
+      <c r="P28">
+        <v>101</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3990,8 +3990,8 @@
       <c r="S34">
         <v>1</v>
       </c>
-      <c r="T34">
-        <v>1</v>
+      <c r="T34" t="s">
+        <v>73</v>
       </c>
       <c r="U34">
         <v>0</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>110.0</t>
   </si>
 </sst>
 </file>
@@ -3033,8 +3033,8 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>110</v>
+      <c r="D25" t="s">
+        <v>73</v>
       </c>
       <c r="E25">
         <v>111</v>
@@ -3990,8 +3990,8 @@
       <c r="S34">
         <v>1</v>
       </c>
-      <c r="T34" t="s">
-        <v>73</v>
+      <c r="T34">
+        <v>1</v>
       </c>
       <c r="U34">
         <v>0</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>110.0</t>
+    <t>113.0</t>
   </si>
 </sst>
 </file>
@@ -2228,8 +2228,8 @@
       <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17">
-        <v>113</v>
+      <c r="E17" t="s">
+        <v>73</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3033,8 +3033,8 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
+      <c r="D25">
+        <v>110</v>
       </c>
       <c r="E25">
         <v>111</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>113.0</t>
+    <t>111.0</t>
   </si>
 </sst>
 </file>
@@ -2228,8 +2228,8 @@
       <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
-        <v>73</v>
+      <c r="E17">
+        <v>113</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3028,7 +3028,7 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>211</v>
+        <v>633</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4504,8 +4504,8 @@
       <c r="V39">
         <v>11</v>
       </c>
-      <c r="W39">
-        <v>111</v>
+      <c r="W39" t="s">
+        <v>73</v>
       </c>
       <c r="X39">
         <v>12</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>111.0</t>
+    <t>100.0</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3028,7 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>633</v>
+        <v>211</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3942,8 +3942,8 @@
       <c r="C34">
         <v>100</v>
       </c>
-      <c r="D34">
-        <v>100</v>
+      <c r="D34" t="s">
+        <v>73</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4504,8 +4504,8 @@
       <c r="V39">
         <v>11</v>
       </c>
-      <c r="W39" t="s">
-        <v>73</v>
+      <c r="W39">
+        <v>111</v>
       </c>
       <c r="X39">
         <v>12</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -235,7 +235,7 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>100.0</t>
+    <t>210.0</t>
   </si>
 </sst>
 </file>
@@ -3942,8 +3942,8 @@
       <c r="C34">
         <v>100</v>
       </c>
-      <c r="D34" t="s">
-        <v>73</v>
+      <c r="D34">
+        <v>100</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4037,8 +4037,8 @@
       <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B35">
-        <v>210</v>
+      <c r="B35" t="s">
+        <v>73</v>
       </c>
       <c r="C35">
         <v>11</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -2627,49 +2627,49 @@
         <v>57</v>
       </c>
       <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>103</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>11</v>
       </c>
-      <c r="C15">
-        <v>111</v>
-      </c>
-      <c r="D15">
-        <v>113</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
       <c r="I15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M15">
         <v>100</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q15">
         <v>100</v>
@@ -2678,43 +2678,43 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T15">
         <v>11</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V15">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>112</v>
+      </c>
+      <c r="Y15">
         <v>11</v>
       </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>110</v>
-      </c>
-      <c r="Y15">
-        <v>10</v>
-      </c>
       <c r="Z15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB15">
         <v>100</v>
       </c>
       <c r="AC15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF15">
         <v>100</v>
@@ -2723,34 +2723,34 @@
         <v>10</v>
       </c>
       <c r="AH15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI15">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AJ15">
         <v>101</v>
       </c>
       <c r="AK15">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM15">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN15">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AO15">
         <v>103</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>210</v>
       </c>
       <c r="AJ16">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16">
         <v>110</v>
@@ -3297,49 +3297,49 @@
         <v>62</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E20">
         <v>110</v>
       </c>
       <c r="F20">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>101</v>
       </c>
       <c r="N20">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O20">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20">
         <v>100</v>
@@ -3348,82 +3348,82 @@
         <v>110</v>
       </c>
       <c r="S20">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T20">
         <v>11</v>
       </c>
       <c r="U20">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V20">
+        <v>15</v>
+      </c>
+      <c r="W20">
+        <v>101</v>
+      </c>
+      <c r="X20">
+        <v>114</v>
+      </c>
+      <c r="Y20">
+        <v>202</v>
+      </c>
+      <c r="Z20">
+        <v>112</v>
+      </c>
+      <c r="AA20">
         <v>12</v>
       </c>
-      <c r="W20">
-        <v>101</v>
-      </c>
-      <c r="X20">
-        <v>111</v>
-      </c>
-      <c r="Y20">
-        <v>201</v>
-      </c>
-      <c r="Z20">
-        <v>111</v>
-      </c>
-      <c r="AA20">
+      <c r="AB20">
+        <v>100</v>
+      </c>
+      <c r="AC20">
+        <v>4</v>
+      </c>
+      <c r="AD20">
+        <v>6</v>
+      </c>
+      <c r="AE20">
+        <v>102</v>
+      </c>
+      <c r="AF20">
+        <v>100</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
         <v>11</v>
       </c>
-      <c r="AB20">
-        <v>100</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>2</v>
-      </c>
-      <c r="AE20">
-        <v>101</v>
-      </c>
-      <c r="AF20">
-        <v>100</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>10</v>
-      </c>
       <c r="AI20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ20">
         <v>111</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL20">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM20">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN20">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AO20">
         <v>103</v>
       </c>
       <c r="AP20">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AQ20">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AR20">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:44">
@@ -3699,49 +3699,49 @@
         <v>65</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>111</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -3750,43 +3750,43 @@
         <v>10</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W23">
         <v>2</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3795,34 +3795,34 @@
         <v>100</v>
       </c>
       <c r="AH23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ23">
         <v>11</v>
       </c>
       <c r="AK23">
+        <v>12</v>
+      </c>
+      <c r="AL23">
+        <v>3</v>
+      </c>
+      <c r="AM23">
         <v>11</v>
       </c>
-      <c r="AL23">
-        <v>2</v>
-      </c>
-      <c r="AM23">
-        <v>10</v>
-      </c>
       <c r="AN23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23">
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR23">
         <v>10</v>
@@ -5182,13 +5182,13 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>11</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S34">
         <v>1</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -5236,13 +5236,13 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z34">
         <v>2</v>
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="AH34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI34">
         <v>11</v>
       </c>
       <c r="AJ34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK34">
         <v>11</v>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP34">
         <v>11</v>
@@ -5299,7 +5299,7 @@
         <v>11</v>
       </c>
       <c r="AR34">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:44">
@@ -5708,8 +5708,8 @@
       <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
-        <v>122</v>
+      <c r="B38">
+        <v>114</v>
       </c>
       <c r="C38">
         <v>114</v>
@@ -5721,10 +5721,10 @@
         <v>211</v>
       </c>
       <c r="F38">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G38">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H38">
         <v>212</v>
@@ -5736,7 +5736,7 @@
         <v>101</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L38">
         <v>12</v>
@@ -5757,7 +5757,7 @@
         <v>101</v>
       </c>
       <c r="R38">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S38">
         <v>101</v>
@@ -5772,13 +5772,13 @@
         <v>113</v>
       </c>
       <c r="W38">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X38">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y38">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z38">
         <v>111</v>
@@ -5790,10 +5790,10 @@
         <v>101</v>
       </c>
       <c r="AC38">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD38">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE38">
         <v>101</v>
@@ -5805,7 +5805,7 @@
         <v>112</v>
       </c>
       <c r="AH38">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI38">
         <v>213</v>
@@ -5829,13 +5829,13 @@
         <v>105</v>
       </c>
       <c r="AP38">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AQ38">
         <v>113</v>
       </c>
       <c r="AR38">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:44">
@@ -6245,94 +6245,94 @@
         <v>84</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G42">
         <v>11</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O42">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P42">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R42">
         <v>111</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
       <c r="U42">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W42">
         <v>11</v>
       </c>
       <c r="X42">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Y42">
         <v>200</v>
       </c>
       <c r="Z42">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA42">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD42">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF42">
         <v>100</v>
@@ -6341,37 +6341,37 @@
         <v>10</v>
       </c>
       <c r="AH42">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI42">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ42">
         <v>11</v>
       </c>
       <c r="AK42">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL42">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM42">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AN42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO42">
         <v>12</v>
       </c>
       <c r="AP42">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR42">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:44">
@@ -6781,49 +6781,49 @@
         <v>88</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P46">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q46">
         <v>100</v>
@@ -6832,43 +6832,43 @@
         <v>11</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T46">
         <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W46">
         <v>1</v>
       </c>
       <c r="X46">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y46">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF46">
         <v>100</v>
@@ -6877,37 +6877,37 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ46">
         <v>111</v>
       </c>
       <c r="AK46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM46">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO46">
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR46">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:44">
@@ -6930,7 +6930,7 @@
         <v>211</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -6963,13 +6963,13 @@
         <v>101</v>
       </c>
       <c r="R47">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S47">
         <v>101</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47">
         <v>100</v>
@@ -6978,13 +6978,13 @@
         <v>1</v>
       </c>
       <c r="W47">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X47">
         <v>100</v>
       </c>
       <c r="Y47">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z47">
         <v>101</v>
@@ -7011,13 +7011,13 @@
         <v>100</v>
       </c>
       <c r="AH47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI47">
         <v>1</v>
       </c>
       <c r="AJ47">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK47">
         <v>1</v>
@@ -7451,49 +7451,49 @@
         <v>93</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>100</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G51">
         <v>11</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K51">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P51">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q51">
         <v>100</v>
@@ -7502,43 +7502,43 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W51">
         <v>11</v>
       </c>
       <c r="X51">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Y51">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA51">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF51">
         <v>100</v>
@@ -7547,37 +7547,37 @@
         <v>101</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ51">
         <v>101</v>
       </c>
       <c r="AK51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM51">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AN51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO51">
         <v>13</v>
       </c>
       <c r="AP51">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AQ51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:44">
@@ -7585,94 +7585,94 @@
         <v>94</v>
       </c>
       <c r="B52">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E52">
         <v>211</v>
       </c>
       <c r="F52">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I52">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K52">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L52">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O52">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P52">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q52">
         <v>101</v>
       </c>
       <c r="R52">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="U52">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X52">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y52">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z52">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA52">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AD52">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AE52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF52">
         <v>100</v>
@@ -7681,34 +7681,34 @@
         <v>100</v>
       </c>
       <c r="AH52">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AI52">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ52">
         <v>111</v>
       </c>
       <c r="AK52">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL52">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM52">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO52">
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ52">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AR52">
         <v>10</v>
@@ -7987,94 +7987,94 @@
         <v>97</v>
       </c>
       <c r="B55">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E55">
         <v>210</v>
       </c>
       <c r="F55">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G55">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H55">
         <v>212</v>
       </c>
       <c r="I55">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J55">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K55">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L55">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M55">
         <v>100</v>
       </c>
       <c r="N55">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O55">
+        <v>112</v>
+      </c>
+      <c r="P55">
+        <v>102</v>
+      </c>
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55">
         <v>111</v>
       </c>
-      <c r="P55">
-        <v>101</v>
-      </c>
-      <c r="Q55">
-        <v>100</v>
-      </c>
-      <c r="R55">
-        <v>110</v>
-      </c>
       <c r="S55">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T55">
         <v>111</v>
       </c>
       <c r="U55">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V55">
+        <v>113</v>
+      </c>
+      <c r="W55">
+        <v>102</v>
+      </c>
+      <c r="X55">
+        <v>212</v>
+      </c>
+      <c r="Y55">
+        <v>212</v>
+      </c>
+      <c r="Z55">
         <v>112</v>
       </c>
-      <c r="W55">
-        <v>101</v>
-      </c>
-      <c r="X55">
-        <v>211</v>
-      </c>
-      <c r="Y55">
-        <v>211</v>
-      </c>
-      <c r="Z55">
-        <v>111</v>
-      </c>
       <c r="AA55">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB55">
         <v>101</v>
       </c>
       <c r="AC55">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD55">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE55">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF55">
         <v>100</v>
@@ -8083,34 +8083,34 @@
         <v>101</v>
       </c>
       <c r="AH55">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AI55">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AJ55">
         <v>111</v>
       </c>
       <c r="AK55">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM55">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN55">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AO55">
         <v>103</v>
       </c>
       <c r="AP55">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AQ55">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AR55">
         <v>110</v>
@@ -8791,94 +8791,94 @@
         <v>103</v>
       </c>
       <c r="B61">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C61">
         <v>13</v>
       </c>
       <c r="D61">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61">
         <v>100</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>101</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P61">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>101</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V61">
+        <v>5</v>
+      </c>
+      <c r="W61">
+        <v>101</v>
+      </c>
+      <c r="X61">
+        <v>5</v>
+      </c>
+      <c r="Y61">
         <v>3</v>
       </c>
-      <c r="W61">
-        <v>101</v>
-      </c>
-      <c r="X61">
-        <v>2</v>
-      </c>
-      <c r="Y61">
-        <v>2</v>
-      </c>
       <c r="Z61">
         <v>101</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB61">
         <v>1</v>
       </c>
       <c r="AC61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -8887,10 +8887,10 @@
         <v>12</v>
       </c>
       <c r="AH61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ61">
         <v>1</v>
@@ -8905,19 +8905,19 @@
         <v>2</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO61">
         <v>5</v>
       </c>
       <c r="AP61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ61">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AR61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:44">
@@ -8940,7 +8940,7 @@
         <v>111</v>
       </c>
       <c r="G62">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -8952,13 +8952,13 @@
         <v>100</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>101</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
         <v>101</v>
@@ -8970,31 +8970,31 @@
         <v>2</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R62">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U62">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V62">
         <v>102</v>
       </c>
       <c r="W62">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X62">
         <v>101</v>
       </c>
       <c r="Y62">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z62">
         <v>101</v>
@@ -9003,7 +9003,7 @@
         <v>102</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62">
         <v>111</v>
@@ -9012,7 +9012,7 @@
         <v>102</v>
       </c>
       <c r="AE62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>101</v>
       </c>
       <c r="AH62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI62">
+        <v>13</v>
+      </c>
+      <c r="AJ62">
         <v>12</v>
-      </c>
-      <c r="AJ62">
-        <v>11</v>
       </c>
       <c r="AK62">
         <v>12</v>
@@ -9595,94 +9595,94 @@
         <v>109</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>103</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
         <v>11</v>
       </c>
-      <c r="F67">
-        <v>11</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>101</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>2</v>
-      </c>
-      <c r="P67">
+      <c r="S67">
         <v>3</v>
       </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-      <c r="R67">
-        <v>10</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
       <c r="T67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD67">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -9691,87 +9691,87 @@
         <v>1</v>
       </c>
       <c r="AH67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ67">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL67">
+        <v>4</v>
+      </c>
+      <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
         <v>3</v>
       </c>
-      <c r="AM67">
-        <v>0</v>
-      </c>
-      <c r="AN67">
-        <v>1</v>
-      </c>
       <c r="AO67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP67">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR67">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:44">
       <c r="A68" t="s">
         <v>110</v>
       </c>
-      <c r="B68">
-        <v>112</v>
+      <c r="B68" t="s">
+        <v>122</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E68">
         <v>211</v>
       </c>
       <c r="F68">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G68">
         <v>11</v>
       </c>
       <c r="H68">
+        <v>113</v>
+      </c>
+      <c r="I68">
+        <v>12</v>
+      </c>
+      <c r="J68">
         <v>112</v>
       </c>
-      <c r="I68">
-        <v>11</v>
-      </c>
-      <c r="J68">
-        <v>111</v>
-      </c>
       <c r="K68">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M68">
         <v>100</v>
       </c>
       <c r="N68">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O68">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P68">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q68">
         <v>101</v>
@@ -9780,43 +9780,43 @@
         <v>110</v>
       </c>
       <c r="S68">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="T68">
         <v>11</v>
       </c>
       <c r="U68">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V68">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W68">
         <v>112</v>
       </c>
       <c r="X68">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y68">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z68">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA68">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AB68">
         <v>101</v>
       </c>
       <c r="AC68">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD68">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE68">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF68">
         <v>100</v>
@@ -9825,37 +9825,37 @@
         <v>111</v>
       </c>
       <c r="AH68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI68">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ68">
         <v>111</v>
       </c>
       <c r="AK68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL68">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM68">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN68">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO68">
         <v>113</v>
       </c>
       <c r="AP68">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AQ68">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR68">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:44">
@@ -10131,19 +10131,19 @@
         <v>113</v>
       </c>
       <c r="B71">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D71">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E71">
         <v>210</v>
       </c>
       <c r="F71">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G71">
         <v>101</v>
@@ -10152,28 +10152,28 @@
         <v>202</v>
       </c>
       <c r="I71">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J71">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K71">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L71">
+        <v>104</v>
+      </c>
+      <c r="M71">
+        <v>101</v>
+      </c>
+      <c r="N71">
+        <v>104</v>
+      </c>
+      <c r="O71">
+        <v>114</v>
+      </c>
+      <c r="P71">
         <v>103</v>
-      </c>
-      <c r="M71">
-        <v>101</v>
-      </c>
-      <c r="N71">
-        <v>103</v>
-      </c>
-      <c r="O71">
-        <v>113</v>
-      </c>
-      <c r="P71">
-        <v>102</v>
       </c>
       <c r="Q71">
         <v>100</v>
@@ -10182,43 +10182,43 @@
         <v>111</v>
       </c>
       <c r="S71">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T71">
         <v>101</v>
       </c>
       <c r="U71">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V71">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W71">
         <v>101</v>
       </c>
       <c r="X71">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y71">
         <v>212</v>
       </c>
       <c r="Z71">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AA71">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB71">
         <v>101</v>
       </c>
       <c r="AC71">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD71">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE71">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF71">
         <v>100</v>
@@ -10227,34 +10227,34 @@
         <v>103</v>
       </c>
       <c r="AH71">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI71">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ71">
         <v>112</v>
       </c>
       <c r="AK71">
+        <v>114</v>
+      </c>
+      <c r="AL71">
+        <v>206</v>
+      </c>
+      <c r="AM71">
         <v>113</v>
       </c>
-      <c r="AL71">
-        <v>205</v>
-      </c>
-      <c r="AM71">
-        <v>112</v>
-      </c>
       <c r="AN71">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AO71">
         <v>106</v>
       </c>
       <c r="AP71">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AQ71">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AR71">
         <v>112</v>
@@ -10265,19 +10265,19 @@
         <v>114</v>
       </c>
       <c r="B72">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>110</v>
       </c>
       <c r="D72">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E72">
         <v>200</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -10316,16 +10316,16 @@
         <v>100</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="U72">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>1</v>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z72">
         <v>101</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="AD72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE72">
         <v>1</v>
@@ -10364,7 +10364,7 @@
         <v>100</v>
       </c>
       <c r="AI72">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ72">
         <v>1</v>
@@ -10385,10 +10385,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AR72">
         <v>0</v>
@@ -10533,19 +10533,19 @@
         <v>116</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -10554,73 +10554,73 @@
         <v>2</v>
       </c>
       <c r="I74">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74">
+        <v>13</v>
+      </c>
+      <c r="P74">
+        <v>103</v>
+      </c>
+      <c r="Q74">
+        <v>101</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>2</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>2</v>
+      </c>
+      <c r="X74">
+        <v>102</v>
+      </c>
+      <c r="Y74">
         <v>12</v>
       </c>
-      <c r="P74">
-        <v>102</v>
-      </c>
-      <c r="Q74">
-        <v>101</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>1</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
-      <c r="W74">
-        <v>2</v>
-      </c>
-      <c r="X74">
-        <v>101</v>
-      </c>
-      <c r="Y74">
-        <v>11</v>
-      </c>
       <c r="Z74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF74">
         <v>100</v>
@@ -10629,34 +10629,34 @@
         <v>1</v>
       </c>
       <c r="AH74">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI74">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AJ74">
         <v>1</v>
       </c>
       <c r="AK74">
+        <v>113</v>
+      </c>
+      <c r="AL74">
+        <v>4</v>
+      </c>
+      <c r="AM74">
         <v>112</v>
       </c>
-      <c r="AL74">
-        <v>3</v>
-      </c>
-      <c r="AM74">
-        <v>111</v>
-      </c>
       <c r="AN74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO74">
         <v>3</v>
       </c>
       <c r="AP74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR74">
         <v>0</v>
@@ -10667,49 +10667,49 @@
         <v>117</v>
       </c>
       <c r="B75">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E75">
         <v>100</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <v>11</v>
       </c>
       <c r="H75">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -10718,43 +10718,43 @@
         <v>101</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U75">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W75">
         <v>111</v>
       </c>
       <c r="X75">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y75">
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB75">
         <v>0</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD75">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -10763,37 +10763,37 @@
         <v>10</v>
       </c>
       <c r="AH75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO75">
         <v>13</v>
       </c>
       <c r="AP75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ75">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AR75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:44">
@@ -10935,106 +10935,106 @@
         <v>119</v>
       </c>
       <c r="B77">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C77">
         <v>100</v>
       </c>
       <c r="D77">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E77">
         <v>210</v>
       </c>
       <c r="F77">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J77">
         <v>100</v>
       </c>
       <c r="K77">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>100</v>
       </c>
       <c r="N77">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O77">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P77">
         <v>101</v>
       </c>
       <c r="Q77">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R77">
         <v>110</v>
       </c>
       <c r="S77">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T77">
         <v>11</v>
       </c>
       <c r="U77">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V77">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W77">
         <v>101</v>
       </c>
       <c r="X77">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y77">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z77">
         <v>111</v>
       </c>
       <c r="AA77">
+        <v>112</v>
+      </c>
+      <c r="AB77">
+        <v>100</v>
+      </c>
+      <c r="AC77">
+        <v>11</v>
+      </c>
+      <c r="AD77">
+        <v>3</v>
+      </c>
+      <c r="AE77">
+        <v>102</v>
+      </c>
+      <c r="AF77">
+        <v>100</v>
+      </c>
+      <c r="AG77">
+        <v>100</v>
+      </c>
+      <c r="AH77">
         <v>111</v>
       </c>
-      <c r="AB77">
-        <v>100</v>
-      </c>
-      <c r="AC77">
-        <v>10</v>
-      </c>
-      <c r="AD77">
-        <v>1</v>
-      </c>
-      <c r="AE77">
-        <v>101</v>
-      </c>
-      <c r="AF77">
-        <v>100</v>
-      </c>
-      <c r="AG77">
-        <v>100</v>
-      </c>
-      <c r="AH77">
-        <v>110</v>
-      </c>
       <c r="AI77">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AJ77">
         <v>111</v>
@@ -11049,16 +11049,16 @@
         <v>110</v>
       </c>
       <c r="AN77">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AO77">
         <v>101</v>
       </c>
       <c r="AP77">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ77">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AR77">
         <v>110</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -382,7 +382,7 @@
     <t>eBay</t>
   </si>
   <si>
-    <t>12.0</t>
+    <t>15.0</t>
   </si>
 </sst>
 </file>
@@ -4386,8 +4386,8 @@
       <c r="G28">
         <v>13</v>
       </c>
-      <c r="H28">
-        <v>15</v>
+      <c r="H28" t="s">
+        <v>122</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -7477,8 +7477,8 @@
       <c r="J51">
         <v>12</v>
       </c>
-      <c r="K51" t="s">
-        <v>122</v>
+      <c r="K51">
+        <v>6</v>
       </c>
       <c r="L51">
         <v>4</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -382,7 +382,7 @@
     <t>eBay</t>
   </si>
   <si>
-    <t>15.0</t>
+    <t>18.0</t>
   </si>
 </sst>
 </file>
@@ -3296,8 +3296,8 @@
       <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20">
-        <v>18</v>
+      <c r="B20" t="s">
+        <v>122</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4371,9 +4371,6 @@
       <c r="B28">
         <v>15</v>
       </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
       <c r="D28">
         <v>18</v>
       </c>
@@ -4386,8 +4383,8 @@
       <c r="G28">
         <v>13</v>
       </c>
-      <c r="H28" t="s">
-        <v>122</v>
+      <c r="H28">
+        <v>15</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -6272,7 +6269,7 @@
         <v>13</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L42">
         <v>13</v>
@@ -9804,7 +9801,7 @@
         <v>14</v>
       </c>
       <c r="AA68">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB68">
         <v>3</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -3296,8 +3296,8 @@
       <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
-        <v>122</v>
+      <c r="B20">
+        <v>18</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -9725,8 +9725,8 @@
       <c r="A68" t="s">
         <v>110</v>
       </c>
-      <c r="B68">
-        <v>18</v>
+      <c r="B68" t="s">
+        <v>122</v>
       </c>
       <c r="C68">
         <v>14</v>

--- a/app/outputs/total_score_from_upload.xlsx
+++ b/app/outputs/total_score_from_upload.xlsx
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>APCO Worldwide</t>
         </is>
@@ -737,7 +737,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Access Afya</t>
         </is>
@@ -852,7 +852,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Amazon</t>
         </is>
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>American Family Insurance Institute for Corporate and Social Impact</t>
         </is>
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>American Student Assistance (ASA)</t>
         </is>
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Americares</t>
         </is>
@@ -1312,7 +1312,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Antropia ESSEC</t>
         </is>
@@ -1427,7 +1427,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Arbor Day Foundation</t>
         </is>
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Asian Development Bank</t>
         </is>
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>AutoCognita</t>
         </is>
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>BMW Foundation Herbert Quandt</t>
         </is>
@@ -1887,7 +1887,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Best Buy</t>
         </is>
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Bill &amp; Melinda Gates Foundation</t>
         </is>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Blue Haven Initiative</t>
         </is>
@@ -2232,7 +2232,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Brazil Foundation</t>
         </is>
@@ -2347,7 +2347,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>CHAiNT Afrique Ghana</t>
         </is>
@@ -2462,7 +2462,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Cambridge Associates</t>
         </is>
@@ -2577,7 +2577,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Campaign for Female Education</t>
         </is>
@@ -2692,122 +2692,122 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Capital One</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Cast Collective</t>
         </is>
@@ -2922,7 +2922,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Cermaq Group</t>
         </is>
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Chandna Foundation</t>
         </is>
@@ -3152,7 +3152,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Clint Taylor</t>
         </is>
@@ -3267,7 +3267,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Clorox</t>
         </is>
@@ -3382,7 +3382,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Compassion International</t>
         </is>
@@ -3497,7 +3497,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Conduent</t>
         </is>
@@ -3612,9 +3612,9 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Consejo Nacional de Investigaciones Científicas y Técnicas</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Consejo Nacional de Investigaciones CientÃ­ficas y TÃ©cnicas</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3727,7 +3727,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>DBS Foundation</t>
         </is>
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Digital Citizen Fund</t>
         </is>
@@ -3957,7 +3957,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Dimagi Inc.</t>
         </is>
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Dropbox Inc.</t>
         </is>
@@ -4187,7 +4187,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Dubai Cares</t>
         </is>
@@ -4302,7 +4302,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>EMBRAPA</t>
         </is>
@@ -4417,7 +4417,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>EPAM</t>
         </is>
@@ -4532,7 +4532,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>EcoAdvisors</t>
         </is>
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Experian</t>
         </is>
@@ -4762,7 +4762,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Federation of Bangladesh Chambers of Commerce and Industries</t>
         </is>
@@ -4877,122 +4877,124 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Firefly Innovations</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
-      </c>
-      <c r="C39" t="n">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
       </c>
       <c r="D39" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="S39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="T39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="U39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="V39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="W39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AC39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AK39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Fondation Prince Albert II de Monaco</t>
         </is>
@@ -5107,7 +5109,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Foundation for Partnership Initiatives in the Niger Delta</t>
         </is>
@@ -5222,7 +5224,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Future Planet Capital</t>
         </is>
@@ -5337,7 +5339,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Georgia-Pacific Foundation</t>
         </is>
@@ -5452,7 +5454,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Golem Network</t>
         </is>
@@ -5567,7 +5569,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Grupo Salinas</t>
         </is>
@@ -5682,7 +5684,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Hamilton Insurance Group</t>
         </is>
@@ -5797,7 +5799,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>IBM</t>
         </is>
@@ -5912,7 +5914,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>InVision</t>
         </is>
@@ -6027,7 +6029,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Innospark Ventures</t>
         </is>
@@ -6142,7 +6144,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Innovation Norway</t>
         </is>
@@ -6257,7 +6259,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>International Center for Biosaline Agriculture</t>
         </is>
@@ -6372,7 +6374,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>International Federation of Inventors Associations</t>
         </is>
@@ -6487,7 +6489,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>International Trans Fund</t>
         </is>
@@ -6602,7 +6604,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>IntraHealth</t>
         </is>
@@ -6717,7 +6719,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Jobs for the Future</t>
         </is>
@@ -6832,7 +6834,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Klaxoon</t>
         </is>
@@ -6947,7 +6949,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Knight Foundation</t>
         </is>
@@ -7062,7 +7064,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Kroger</t>
         </is>
@@ -7177,7 +7179,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Lex Mundi Pro Bono Foundation</t>
         </is>
@@ -7292,7 +7294,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>LifeBank</t>
         </is>
@@ -7407,7 +7409,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Luminus Education</t>
         </is>
@@ -7522,7 +7524,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Lux Capital</t>
         </is>
@@ -7637,7 +7639,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>MIT Department of Urban Studies and Planning</t>
         </is>
@@ -7752,7 +7754,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>MIT Media Lab</t>
         </is>
@@ -7867,7 +7869,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Malaika</t>
         </is>
@@ -7982,7 +7984,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>Mastercard</t>
         </is>
@@ -8097,7 +8099,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Merian Ventures</t>
         </is>
@@ -8212,7 +8214,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Metta Impact Ventures Pte Ltd</t>
         </is>
@@ -8327,7 +8329,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Mondi Group</t>
         </is>
@@ -8442,7 +8444,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>MyGovIndia</t>
         </is>
@@ -8557,7 +8559,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Neopenda</t>
         </is>
@@ -8672,122 +8674,122 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Nonfiction Design</t>
         </is>
       </c>
       <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
         <v>6</v>
       </c>
-      <c r="C72" t="n">
-        <v>6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>12</v>
-      </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Northrop Grumman Corporation</t>
         </is>
@@ -8902,7 +8904,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Nuvo Inc.</t>
         </is>
@@ -9017,7 +9019,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Obama Foundation</t>
         </is>
@@ -9132,7 +9134,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Olam International</t>
         </is>
@@ -9247,7 +9249,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Oliver Wyman Group</t>
         </is>
@@ -9362,7 +9364,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Pfizer Inc.</t>
         </is>
@@ -9477,7 +9479,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Pioneering Ventures</t>
         </is>
@@ -9592,7 +9594,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>RISE</t>
         </is>
@@ -9707,7 +9709,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>SAP</t>
         </is>
@@ -9822,7 +9824,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>SEED</t>
         </is>
@@ -9937,7 +9939,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Save the Children</t>
         </is>
@@ -10052,7 +10054,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+      <c r="A84" t="inlineStr">
         <is>
           <t>Schmidt Marine Technology Partners</t>
         </is>
@@ -10167,7 +10169,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Seed Global Health</t>
         </is>
@@ -10282,7 +10284,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Segal Family Foundation</t>
         </is>
@@ -10397,7 +10399,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Someone Else's Child Foundation</t>
         </is>
@@ -10512,7 +10514,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Soronko Solutions</t>
         </is>
@@ -10627,7 +10629,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Sresta, Inc</t>
         </is>
@@ -10742,122 +10744,122 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Strada Education Network</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>4</v>
+      </c>
+      <c r="W90" t="n">
+        <v>2</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI90" t="n">
         <v>5</v>
       </c>
-      <c r="G90" t="n">
-        <v>4</v>
-      </c>
-      <c r="H90" t="n">
-        <v>5</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3</v>
-      </c>
-      <c r="K90" t="n">
-        <v>4</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3</v>
-      </c>
-      <c r="M90" t="n">
-        <v>5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>3</v>
-      </c>
-      <c r="O90" t="n">
-        <v>7</v>
-      </c>
-      <c r="P90" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>5</v>
-      </c>
-      <c r="R90" t="n">
-        <v>5</v>
-      </c>
-      <c r="S90" t="n">
-        <v>5</v>
-      </c>
-      <c r="T90" t="n">
-        <v>4</v>
-      </c>
-      <c r="U90" t="n">
-        <v>5</v>
-      </c>
-      <c r="V90" t="n">
-        <v>6</v>
-      </c>
-      <c r="W90" t="n">
-        <v>3</v>
-      </c>
-      <c r="X90" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Sustain Labs Paris</t>
         </is>
@@ -10972,7 +10974,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Swarovski</t>
         </is>
@@ -11087,7 +11089,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+      <c r="A93" t="inlineStr">
         <is>
           <t>T.A. Pai Management Institute</t>
         </is>
@@ -11202,7 +11204,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+      <c r="A94" t="inlineStr">
         <is>
           <t>The Geneva Learning Foundation</t>
         </is>
@@ -11317,7 +11319,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>The Global Fund to Fight AIDS, Tuberculosis and Malaria</t>
         </is>
@@ -11432,7 +11434,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="A96" t="inlineStr">
         <is>
           <t>The Hague Business Agency</t>
         </is>
@@ -11547,7 +11549,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+      <c r="A97" t="inlineStr">
         <is>
           <t>The Kamath Family Foundation</t>
         </is>
@@ -11662,7 +11664,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="A98" t="inlineStr">
         <is>
           <t>The Mobile Commodity MarketPlace</t>
         </is>
@@ -11777,7 +11779,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+      <c r="A99" t="inlineStr">
         <is>
           <t>The Nature Conservancy</t>
         </is>
@@ -11892,7 +11894,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="A100" t="inlineStr">
         <is>
           <t>The Pershing Square Foundation</t>
         </is>
@@ -12007,7 +12009,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Twilio.org</t>
         </is>
@@ -12122,7 +12124,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+      <c r="A102" t="inlineStr">
         <is>
           <t>UN Women</t>
         </is>
@@ -12237,7 +12239,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+      <c r="A103" t="inlineStr">
         <is>
           <t>Uber</t>
         </is>
@@ -12352,7 +12354,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+      <c r="A104" t="inlineStr">
         <is>
           <t>Unfunded List</t>
         </is>
@@ -12467,7 +12469,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
+      <c r="A105" t="inlineStr">
         <is>
           <t>University of Cambridge</t>
         </is>
@@ -12582,7 +12584,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
+      <c r="A106" t="inlineStr">
         <is>
           <t>Ventec Life Systems</t>
         </is>
@@ -12697,7 +12699,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
+      <c r="A107" t="inlineStr">
         <is>
           <t>WellBeing Foundation Africa</t>
         </is>
@@ -12812,7 +12814,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
+      <c r="A108" t="inlineStr">
         <is>
           <t>Wiley Education Services</t>
         </is>
@@ -12927,7 +12929,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
+      <c r="A109" t="inlineStr">
         <is>
           <t>Women's WorldWide Web (W4)</t>
         </is>
@@ -13042,7 +13044,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
+      <c r="A110" t="inlineStr">
         <is>
           <t>X Prize Foundation</t>
         </is>
@@ -13157,7 +13159,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
+      <c r="A111" t="inlineStr">
         <is>
           <t>X, The Moonshot Factory</t>
         </is>
@@ -13272,7 +13274,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
+      <c r="A112" t="inlineStr">
         <is>
           <t>YUM Brands</t>
         </is>
@@ -13387,7 +13389,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
+      <c r="A113" t="inlineStr">
         <is>
           <t>edX</t>
         </is>
